--- a/Test/MC_Ssf/T1/Sensors_data_1000003.xlsx
+++ b/Test/MC_Ssf/T1/Sensors_data_1000003.xlsx
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.7549329149136563</v>
+        <v>0.8534533422441462</v>
       </c>
       <c r="D2" t="n">
-        <v>0.008905056194601618</v>
+        <v>0.005325097909362822</v>
       </c>
       <c r="E2" t="n">
-        <v>0.1062293655013039</v>
+        <v>-0.0004486909595144417</v>
       </c>
       <c r="F2" t="n">
         <v>2</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.09567557785646486</v>
+        <v>0.3068397950390509</v>
       </c>
       <c r="D3" t="n">
-        <v>0.03808999777377375</v>
+        <v>0.02919579524486234</v>
       </c>
       <c r="E3" t="n">
-        <v>0.2592921371205169</v>
+        <v>0.2950342053291161</v>
       </c>
       <c r="F3" t="n">
         <v>3</v>
@@ -525,13 +525,13 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9865509879785831</v>
+        <v>0.9656388618431377</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0006044668843541564</v>
+        <v>0.001544364009152924</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.008457665506654166</v>
+        <v>0.0001591823059357012</v>
       </c>
       <c r="F4" t="n">
         <v>2</v>
@@ -550,13 +550,13 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.8824466105621395</v>
+        <v>0.6162605271718271</v>
       </c>
       <c r="D5" t="n">
-        <v>0.004600180027402346</v>
+        <v>0.01501675678661056</v>
       </c>
       <c r="E5" t="n">
-        <v>0.01139719161329167</v>
+        <v>0.002507475722629493</v>
       </c>
       <c r="F5" t="n">
         <v>3</v>
